--- a/groupe/Audit site Trimeta groupe.xlsx
+++ b/groupe/Audit site Trimeta groupe.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asa\trimeta\Audit\groupe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebMaster\lucas\Free\Trimeta\Groupe\Audit\groupe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A256A-AF7A-4B69-9968-AC19ABBBF34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B9E430-887D-4B09-BF43-BE0A0010B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
     <sheet name="versions linguistiques" sheetId="2" r:id="rId2"/>
+    <sheet name="optimisations images" sheetId="3" r:id="rId3"/>
+    <sheet name="contenu mixtes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="231">
   <si>
     <t>Commentaire</t>
   </si>
@@ -100,9 +102,6 @@
     <t>Présence de failles de sécurité (vulnérabilités)</t>
   </si>
   <si>
-    <t>dans cheques pages du site web</t>
-  </si>
-  <si>
     <t>version php</t>
   </si>
   <si>
@@ -335,13 +334,400 @@
   </si>
   <si>
     <t>site tester avec differents navigateur</t>
+  </si>
+  <si>
+    <t>chargement images</t>
+  </si>
+  <si>
+    <t>taille des images non optimiser aux conteneurs</t>
+  </si>
+  <si>
+    <t>optimiser les images selons les conteneurs qui les contienent</t>
+  </si>
+  <si>
+    <t>point fort: images sous format webp</t>
+  </si>
+  <si>
+    <t>4415 × 2943 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com</t>
+  </si>
+  <si>
+    <t>/css/navbar.css(www.trimetagroup.com)</t>
+  </si>
+  <si>
+    <t>/css/app.css(www.trimetagroup.com)</t>
+  </si>
+  <si>
+    <t>…logo/logo_enduma.webp</t>
+  </si>
+  <si>
+    <t>…logo/logo_trimeta.webp</t>
+  </si>
+  <si>
+    <t>…logo/logo_wimmo.webp</t>
+  </si>
+  <si>
+    <t>…logo/Millot.webp</t>
+  </si>
+  <si>
+    <t>…logo/logo_orkidex.webp</t>
+  </si>
+  <si>
+    <t>…logo/alma_logo.webp</t>
+  </si>
+  <si>
+    <t>/js/motion.js</t>
+  </si>
+  <si>
+    <t>…Enduma/enduma_2.webp</t>
+  </si>
+  <si>
+    <t>…TAF/trimeta_4.webp</t>
+  </si>
+  <si>
+    <t>…Wimmo/wimmo_2.webp</t>
+  </si>
+  <si>
+    <t>…Millot/millot-plantation.webp</t>
+  </si>
+  <si>
+    <t>…TAF/trimeta_2.webp</t>
+  </si>
+  <si>
+    <t>…alma/alma-1.webp</t>
+  </si>
+  <si>
+    <t>…Groupe/groupe_10.webp</t>
+  </si>
+  <si>
+    <t>cheques pages du site web dans onglets contenu mixtes</t>
+  </si>
+  <si>
+    <t>choix de la technologie utilisé (maintenance, Mise à jours, gestion de contenu...)</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Enduma/enduma.webp</t>
+  </si>
+  <si>
+    <t>1,19Mo</t>
+  </si>
+  <si>
+    <t>163 Ko</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Url images</t>
+  </si>
+  <si>
+    <t>Tailles original</t>
+  </si>
+  <si>
+    <t>Taille optimisés</t>
+  </si>
+  <si>
+    <t>Poids origine</t>
+  </si>
+  <si>
+    <t>PoidS optimisé</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/TAF/trimeta_4.webp</t>
+  </si>
+  <si>
+    <t>3162 × 4743 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Wimmo/wimmo_2.webp</t>
+  </si>
+  <si>
+    <t>5472 × 3648 px</t>
+  </si>
+  <si>
+    <t>4415*2943 PX</t>
+  </si>
+  <si>
+    <t>1500*1000 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/TAF/trimeta_2.webp</t>
+  </si>
+  <si>
+    <t>4582 × 3055 px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transformateur de vanille </t>
+  </si>
+  <si>
+    <t>Nom recommandé</t>
+  </si>
+  <si>
+    <t>Les noms des images doivent refleter le contenu de l'images</t>
+  </si>
+  <si>
+    <t>voir onglet optimiations pour les noms des images</t>
+  </si>
+  <si>
+    <t>voir onglet optimisations images, ces optimisations reduiront le poids de l'iamges mais n'affecterons pas la qualité vue qu'ils seront directement adapter aux conteneurs</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/alma/alma-villas-product.webp</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/commitments-bg.webp</t>
+  </si>
+  <si>
+    <t>5103 × 3402 px</t>
+  </si>
+  <si>
+    <t>2560 * 512 px</t>
+  </si>
+  <si>
+    <t>Nomenclature des images</t>
+  </si>
+  <si>
+    <t>Taille total du site 7.0 MB ressources</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/logo/logo_enduma.webp</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>2036 × 742 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/logo/logo_trimeta.webp</t>
+  </si>
+  <si>
+    <t>9539 × 3297 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/logo/logo_wimmo.webp</t>
+  </si>
+  <si>
+    <t>2064 × 716 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/logo/logo_orkidex.webp</t>
+  </si>
+  <si>
+    <t>1181 × 501 px</t>
+  </si>
+  <si>
+    <t>4500 × 3183 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/logo/alma_logo.webp</t>
+  </si>
+  <si>
+    <t>200 * 141 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/logo/logo_trimeta_finance.webp</t>
+  </si>
+  <si>
+    <t>14394 × 5493 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/logo/logo_vanille_mad.webp</t>
+  </si>
+  <si>
+    <t>11019 × 6488 px</t>
+  </si>
+  <si>
+    <t>https://www.trimetagroup.mg/wp-content/uploads/2023/11/C-M-2.jpg</t>
+  </si>
+  <si>
+    <t>Notre missions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2560 *564 px </t>
+  </si>
+  <si>
+    <t>https://www.trimetagroup.mg/wp-content/uploads/2023/11/TRIMETA_STUDIO-B-5-1.jpg</t>
+  </si>
+  <si>
+    <t>Nos valeurs</t>
+  </si>
+  <si>
+    <t>4743 × 3162 px</t>
+  </si>
+  <si>
+    <t>/activities/enduma</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Enduma/shealth.jpg</t>
+  </si>
+  <si>
+    <t>2943 × 4415 px</t>
+  </si>
+  <si>
+    <t>768 * 296px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Enduma/twine.jpg</t>
+  </si>
+  <si>
+    <t>3265 × 4898 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Enduma/customizable-bag.jpg</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Enduma/tarpaulin.jpg</t>
+  </si>
+  <si>
+    <t>304 × 1728 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Enduma/strap.jpg</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/sgs-iso-9001.jpg</t>
+  </si>
+  <si>
+    <t>629 × 614 px</t>
+  </si>
+  <si>
+    <t>200 * 200px</t>
+  </si>
+  <si>
+    <t>enduma.certifications.three.images</t>
+  </si>
+  <si>
+    <t>photo non trouvé</t>
+  </si>
+  <si>
+    <t>mila jerena le image maivaina @le alt sy nom</t>
+  </si>
+  <si>
+    <t>activities/trimeta-agrofood</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/TAF/pepper.webp</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/TAF/pink-berries.webp</t>
+  </si>
+  <si>
+    <t>3162 × 2108 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/TAF/cinnamon.jpg</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/TAF/cloves.jpg</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/TAF/clove-leaf-oil.jpg</t>
+  </si>
+  <si>
+    <t>125 × 196 px</t>
+  </si>
+  <si>
+    <t>480 × 750 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/logo/ubet-ra.jpeg</t>
+  </si>
+  <si>
+    <t>196 × 196 px</t>
+  </si>
+  <si>
+    <t>activities/orkidex</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/logo/haccp.jpeg</t>
+  </si>
+  <si>
+    <t>1046 × 1046 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Wimmo/wioffice.webp</t>
+  </si>
+  <si>
+    <t>activities/wimmo</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Wimmo/wihome.jpg</t>
+  </si>
+  <si>
+    <t>wimmo product</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Wimmo/wihome2.webp</t>
+  </si>
+  <si>
+    <t>6240 × 4160 px</t>
+  </si>
+  <si>
+    <t>1748 × 1240 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Wimmo/wiholidays.jpg</t>
+  </si>
+  <si>
+    <t>5655 × 3770 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Wimmo/wistore.jpg</t>
+  </si>
+  <si>
+    <t>activities/alma-villas</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/alma/alma-1.webp</t>
+  </si>
+  <si>
+    <t>4000 × 2625 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/alma/alma-villas-product-3.webp</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/alma/garden-villa.jpg</t>
+  </si>
+  <si>
+    <t>our-commitments</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/compliance-with-general-principles.webp</t>
+  </si>
+  <si>
+    <t>1600 × 1066 px</t>
+  </si>
+  <si>
+    <t>1302 × 400 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/respect-of-men-and-women.webp</t>
+  </si>
+  <si>
+    <t>2400 × 1600 px</t>
+  </si>
+  <si>
+    <t>302 × 400 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/protection-of-the-group-assets.webp</t>
+  </si>
+  <si>
+    <t>2400 × 1067 px</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/formation.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,8 +767,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0B57D0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +805,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -415,15 +825,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -705,16 +1121,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
@@ -722,14 +1138,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -820,12 +1236,12 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -833,145 +1249,189 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
         <v>87</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>89</v>
       </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
       <c r="E23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -999,180 +1459,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1182,4 +1642,710 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33D7C8-33CA-4A4B-BF83-F464CE57C367}">
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174ECA9-E382-4643-97D4-98D68730974F}">
+  <dimension ref="A2:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/groupe/Audit site Trimeta groupe.xlsx
+++ b/groupe/Audit site Trimeta groupe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebMaster\lucas\Free\Trimeta\Groupe\Audit\groupe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B9E430-887D-4B09-BF43-BE0A0010B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AEA1AA-732B-4D54-9A19-9854D13E0950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="1515" windowWidth="28770" windowHeight="13125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="237">
   <si>
     <t>Commentaire</t>
   </si>
@@ -721,6 +721,24 @@
   </si>
   <si>
     <t>http://www.trimetagroup.com/images/formation.webp</t>
+  </si>
+  <si>
+    <t>Diffusez des images de taille appropriée afin d'économiser des données mobiles et de réduire le temps de chargement</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/career/enduma-job.webp</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/career/orkidex-job2.webp</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/career/wimmo-job.webp</t>
+  </si>
+  <si>
+    <t>640*330 px</t>
   </si>
 </sst>
 </file>
@@ -831,15 +849,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1121,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,14 +1156,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1416,21 +1434,26 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>145</v>
-      </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1646,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33D7C8-33CA-4A4B-BF83-F464CE57C367}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1797,7 @@
       <c r="B11" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>156</v>
       </c>
       <c r="D11" t="s">
@@ -1785,7 +1808,7 @@
       <c r="B12" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D12" t="s">
@@ -1796,7 +1819,7 @@
       <c r="B13" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>160</v>
       </c>
       <c r="D13" t="s">
@@ -1807,7 +1830,7 @@
       <c r="B14" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>162</v>
       </c>
       <c r="D14" t="s">
@@ -1818,7 +1841,7 @@
       <c r="B15" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>163</v>
       </c>
       <c r="D15" t="s">
@@ -1834,7 +1857,7 @@
       <c r="B18" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>167</v>
       </c>
       <c r="D18" t="s">
@@ -1845,7 +1868,7 @@
       <c r="B19" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>169</v>
       </c>
       <c r="D19" t="s">
@@ -1861,7 +1884,7 @@
       <c r="B22" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D22" t="s">
@@ -1877,7 +1900,7 @@
       <c r="B25" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>175</v>
       </c>
       <c r="D25" t="s">
@@ -1893,7 +1916,7 @@
       <c r="B27" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D27" t="s">
@@ -1904,7 +1927,7 @@
       <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>178</v>
       </c>
       <c r="D28" t="s">
@@ -1915,7 +1938,7 @@
       <c r="B29" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D29" t="s">
@@ -1926,7 +1949,7 @@
       <c r="B30" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D30" t="s">
@@ -1937,7 +1960,7 @@
       <c r="B31" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D31" t="s">
@@ -1948,7 +1971,7 @@
       <c r="B32" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D32" t="s">
@@ -1959,7 +1982,7 @@
       <c r="B33" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D33" t="s">
@@ -1967,10 +1990,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1983,7 +2006,7 @@
       <c r="B37" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D37" t="s">
@@ -1994,7 +2017,7 @@
       <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D38" t="s">
@@ -2005,7 +2028,7 @@
       <c r="B39" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>195</v>
       </c>
       <c r="D39" t="s">
@@ -2016,7 +2039,7 @@
       <c r="B40" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>175</v>
       </c>
       <c r="D40" t="s">
@@ -2027,7 +2050,7 @@
       <c r="B41" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>175</v>
       </c>
       <c r="D41" t="s">
@@ -2038,7 +2061,7 @@
       <c r="B42" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>181</v>
       </c>
       <c r="D42" t="s">
@@ -2078,24 +2101,24 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D49" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D50" t="s">
@@ -2103,10 +2126,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>211</v>
       </c>
       <c r="D51" t="s">
@@ -2114,10 +2137,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>212</v>
       </c>
       <c r="D52" t="s">
@@ -2125,10 +2148,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D53" t="s">
@@ -2136,10 +2159,10 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>214</v>
       </c>
       <c r="D54" t="s">
@@ -2155,7 +2178,7 @@
       <c r="B57" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D57" t="s">
@@ -2163,10 +2186,10 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>218</v>
       </c>
       <c r="D58" t="s">
@@ -2174,10 +2197,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>175</v>
       </c>
       <c r="D59" t="s">
@@ -2185,10 +2208,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>175</v>
       </c>
       <c r="D60" t="s">
@@ -2201,7 +2224,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>222</v>
       </c>
       <c r="C63" t="s">
@@ -2222,7 +2245,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>228</v>
       </c>
@@ -2233,7 +2256,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>230</v>
       </c>
@@ -2242,6 +2265,44 @@
       </c>
       <c r="D66" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/groupe/Audit site Trimeta groupe.xlsx
+++ b/groupe/Audit site Trimeta groupe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebMaster\lucas\Free\Trimeta\Groupe\Audit\groupe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asa\Audit-trimeta\groupe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AEA1AA-732B-4D54-9A19-9854D13E0950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F35A7-C15E-42DB-8766-9B93854B19E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="1515" windowWidth="28770" windowHeight="13125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="292">
   <si>
     <t>Commentaire</t>
   </si>
@@ -411,12 +411,6 @@
     <t>http://www.trimetagroup.com/images/Enduma/enduma.webp</t>
   </si>
   <si>
-    <t>1,19Mo</t>
-  </si>
-  <si>
-    <t>163 Ko</t>
-  </si>
-  <si>
     <t>Pages</t>
   </si>
   <si>
@@ -429,12 +423,6 @@
     <t>Taille optimisés</t>
   </si>
   <si>
-    <t>Poids origine</t>
-  </si>
-  <si>
-    <t>PoidS optimisé</t>
-  </si>
-  <si>
     <t>http://www.trimetagroup.com/images/TAF/trimeta_4.webp</t>
   </si>
   <si>
@@ -447,9 +435,6 @@
     <t>5472 × 3648 px</t>
   </si>
   <si>
-    <t>4415*2943 PX</t>
-  </si>
-  <si>
     <t>1500*1000 px</t>
   </si>
   <si>
@@ -459,12 +444,6 @@
     <t>4582 × 3055 px</t>
   </si>
   <si>
-    <t xml:space="preserve">transformateur de vanille </t>
-  </si>
-  <si>
-    <t>Nom recommandé</t>
-  </si>
-  <si>
     <t>Les noms des images doivent refleter le contenu de l'images</t>
   </si>
   <si>
@@ -495,9 +474,6 @@
     <t>http://www.trimetagroup.com/images/logo/logo_enduma.webp</t>
   </si>
   <si>
-    <t>alt</t>
-  </si>
-  <si>
     <t>2036 × 742 px</t>
   </si>
   <si>
@@ -597,9 +573,6 @@
     <t>200 * 200px</t>
   </si>
   <si>
-    <t>enduma.certifications.three.images</t>
-  </si>
-  <si>
     <t>photo non trouvé</t>
   </si>
   <si>
@@ -657,9 +630,6 @@
     <t>http://www.trimetagroup.com/images/Wimmo/wihome.jpg</t>
   </si>
   <si>
-    <t>wimmo product</t>
-  </si>
-  <si>
     <t>http://www.trimetagroup.com/images/Wimmo/wihome2.webp</t>
   </si>
   <si>
@@ -739,13 +709,242 @@
   </si>
   <si>
     <t>640*330 px</t>
+  </si>
+  <si>
+    <t>sac tissé enduma</t>
+  </si>
+  <si>
+    <t>sac-tisse.webp</t>
+  </si>
+  <si>
+    <r>
+      <t>4415*2943 PX (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,19Mo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1500*1000 px </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(163ko)</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/images/Enduma/mesh-bag.jpg</t>
+  </si>
+  <si>
+    <t>sac-filet.webp</t>
+  </si>
+  <si>
+    <t>ficelle.webp</t>
+  </si>
+  <si>
+    <t>sac-personnalisées.webp</t>
+  </si>
+  <si>
+    <t>bache.webp</t>
+  </si>
+  <si>
+    <t>feuillard.webp</t>
+  </si>
+  <si>
+    <t>produit feuillard enduma</t>
+  </si>
+  <si>
+    <t>produit bache enduma</t>
+  </si>
+  <si>
+    <t>produit sac personnalisées enduma</t>
+  </si>
+  <si>
+    <t>produit ficelle blanc enduma</t>
+  </si>
+  <si>
+    <t>produit sac filet enduma</t>
+  </si>
+  <si>
+    <t>Certifications in progress: ISO 14001 on Environmental Management.</t>
+  </si>
+  <si>
+    <t>Certification sgs iso 9001 enduma</t>
+  </si>
+  <si>
+    <t>Nom recommandé Version Anglais</t>
+  </si>
+  <si>
+    <t>Nom recommandé Version français</t>
+  </si>
+  <si>
+    <t>alt VF</t>
+  </si>
+  <si>
+    <t>Alt VE</t>
+  </si>
+  <si>
+    <t>farm-bag.webp</t>
+  </si>
+  <si>
+    <t>farm bag enduma</t>
+  </si>
+  <si>
+    <t>enduma logo</t>
+  </si>
+  <si>
+    <t>trimeta logo</t>
+  </si>
+  <si>
+    <t>wimmo logo</t>
+  </si>
+  <si>
+    <t>orkidex logo</t>
+  </si>
+  <si>
+    <t>alma villas logo</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>vanille mad logo</t>
+  </si>
+  <si>
+    <t>trimeta finance logo</t>
+  </si>
+  <si>
+    <t>gaine.webp</t>
+  </si>
+  <si>
+    <t>produit gaine enduma</t>
+  </si>
+  <si>
+    <t>produit sac tissé agricole enduma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> farm bag product enduma</t>
+  </si>
+  <si>
+    <t>shealth product enduma</t>
+  </si>
+  <si>
+    <t>tarpaulin product enduma</t>
+  </si>
+  <si>
+    <t>strap product enduma</t>
+  </si>
+  <si>
+    <t>mesh bag product enduma</t>
+  </si>
+  <si>
+    <t>twine product enduma</t>
+  </si>
+  <si>
+    <t>customizable bag product enduma</t>
+  </si>
+  <si>
+    <t>shealth.webp</t>
+  </si>
+  <si>
+    <t>Chacun des ces images doivent être traités et optimisé de façon à rendre le site le plus leger possible avec l"extension sous webp</t>
+  </si>
+  <si>
+    <t>mesh-bag.webp</t>
+  </si>
+  <si>
+    <t>twine.webp</t>
+  </si>
+  <si>
+    <t>customizable-bag.webp</t>
+  </si>
+  <si>
+    <t>tarpaulin.webp</t>
+  </si>
+  <si>
+    <t>strap.webp</t>
+  </si>
+  <si>
+    <t>sgs-iso-9001.webp</t>
+  </si>
+  <si>
+    <t>vanille-epice.webp</t>
+  </si>
+  <si>
+    <t>vanilla-spices.webp</t>
+  </si>
+  <si>
+    <t>Vanilla &amp; Spices Export by trimeta agrofood</t>
+  </si>
+  <si>
+    <t>exportation vanille et épices trimeta agrofood</t>
+  </si>
+  <si>
+    <t>wimmo promoteur immobilier</t>
+  </si>
+  <si>
+    <t>wimmo-promoteur-immobilier.webp</t>
+  </si>
+  <si>
+    <t>Real estate developer wimmo</t>
+  </si>
+  <si>
+    <t>real-estate-developer-wimmo.webp</t>
+  </si>
+  <si>
+    <t>orkidex-vanilla-transform.webp</t>
+  </si>
+  <si>
+    <t>orkidex vanilla transform</t>
+  </si>
+  <si>
+    <t>transformateur de vanille orkidex</t>
+  </si>
+  <si>
+    <t>transformateur-vanille-orkidex.webp</t>
+  </si>
+  <si>
+    <t>plage et villas almas</t>
+  </si>
+  <si>
+    <t>plage-villas-alma.webp</t>
+  </si>
+  <si>
+    <t>beach and villas almas</t>
+  </si>
+  <si>
+    <t>beach-villa-alma.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,13 +992,26 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
+      <color rgb="FF0B57D0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0B57D0"/>
+      <color rgb="FF1B1B1B"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -843,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -854,10 +1066,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1141,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,14 +1369,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1430,31 +1643,31 @@
         <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33D7C8-33CA-4A4B-BF83-F464CE57C367}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,634 +1893,842 @@
     <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
       <c r="B1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>230</v>
+      </c>
+      <c r="E5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" t="s">
+        <v>282</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>281</v>
+      </c>
+      <c r="H7" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>148</v>
+      <c r="B8" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" t="s">
-        <v>165</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
+      <c r="F12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="F13" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="F14" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>257</v>
+      </c>
+      <c r="H19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="5" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="E30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>185</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" t="s">
+        <v>273</v>
+      </c>
+      <c r="F33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" t="s">
+        <v>275</v>
+      </c>
+      <c r="H35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>187</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+      <c r="C43" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>189</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>204</v>
-      </c>
-      <c r="C46" t="s">
-        <v>205</v>
-      </c>
-      <c r="D46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="C60" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
+      <c r="C61" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C62" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>211</v>
       </c>
-      <c r="D51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" s="5" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
+      <c r="C65" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="D65" t="s">
         <v>214</v>
-      </c>
-      <c r="D54" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D58" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" t="s">
-        <v>226</v>
-      </c>
-      <c r="D64" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>228</v>
-      </c>
-      <c r="C65" t="s">
-        <v>226</v>
-      </c>
-      <c r="D65" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D66" t="s">
-        <v>224</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>233</v>
-      </c>
-      <c r="C69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" t="s">
-        <v>236</v>
+      <c r="B68" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" t="s">
-        <v>236</v>
+      <c r="A70" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
         <v>106</v>
       </c>
       <c r="D71" t="s">
-        <v>236</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B29" r:id="rId1" xr:uid="{BCA6E05A-A6C1-4A2E-8262-67E4CAA21C54}"/>
+    <hyperlink ref="B30" r:id="rId2" xr:uid="{4DB6CD7E-A116-4D42-9F77-AA77B5AF902B}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{E3E51531-0478-4BFC-93B0-4477ECF185CC}"/>
+    <hyperlink ref="B32" r:id="rId4" xr:uid="{55E1819A-C9DD-4DE1-99E4-17725A454407}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{EE7E2EB8-FBFA-4A56-B60A-40B9A31C44D9}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{2C7FD39E-0592-4EBE-9A35-0D8A6D8385B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
